--- a/booklist.xlsx
+++ b/booklist.xlsx
@@ -1,79 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masah\bookmanage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5735719-5A46-42D2-BC3F-E2E7A58A69D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>author</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>publisher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>isbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>language</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,21 +53,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -372,2537 +392,2610 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <cols>
+    <col width="4.5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="20.5" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="20.25" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="16.125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="9.25" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>isbn</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9780713488913</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Imagination in Chess</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Paata Gaprindashvili</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B T Batsford Ltd</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9780713488913</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Imagination in Chess</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Paata Gaprindashvili</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B T Batsford Ltd</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
+    <row r="66">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
+    <row r="67">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
+    <row r="82">
+      <c r="A82" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
+    <row r="83">
+      <c r="A83" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
+    <row r="84">
+      <c r="A84" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85">
+    <row r="85">
+      <c r="A85" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
+    <row r="86">
+      <c r="A86" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
+    <row r="87">
+      <c r="A87" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88">
+    <row r="88">
+      <c r="A88" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89">
+    <row r="89">
+      <c r="A89" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
+    <row r="90">
+      <c r="A90" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91">
+    <row r="91">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92">
+    <row r="92">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95">
+    <row r="95">
+      <c r="A95" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96">
+    <row r="96">
+      <c r="A96" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97">
+    <row r="97">
+      <c r="A97" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98">
+    <row r="98">
+      <c r="A98" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
+    <row r="99">
+      <c r="A99" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100">
+    <row r="100">
+      <c r="A100" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102">
+    <row r="102">
+      <c r="A102" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103">
+    <row r="103">
+      <c r="A103" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104">
+    <row r="104">
+      <c r="A104" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105">
+    <row r="105">
+      <c r="A105" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106">
+    <row r="106">
+      <c r="A106" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107">
+    <row r="107">
+      <c r="A107" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108">
+    <row r="108">
+      <c r="A108" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109">
+    <row r="109">
+      <c r="A109" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110">
+    <row r="110">
+      <c r="A110" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111">
+    <row r="111">
+      <c r="A111" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112">
+    <row r="112">
+      <c r="A112" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113">
+    <row r="113">
+      <c r="A113" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114">
+    <row r="114">
+      <c r="A114" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115">
+    <row r="115">
+      <c r="A115" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116">
+    <row r="116">
+      <c r="A116" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117">
+    <row r="117">
+      <c r="A117" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118">
+    <row r="118">
+      <c r="A118" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119">
+    <row r="119">
+      <c r="A119" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120">
+    <row r="120">
+      <c r="A120" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121">
+    <row r="121">
+      <c r="A121" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122">
+    <row r="122">
+      <c r="A122" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123">
+    <row r="123">
+      <c r="A123" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124">
+    <row r="124">
+      <c r="A124" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125">
+    <row r="125">
+      <c r="A125" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126">
+    <row r="126">
+      <c r="A126" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127">
+    <row r="127">
+      <c r="A127" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128">
+    <row r="128">
+      <c r="A128" t="n">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129">
+    <row r="129">
+      <c r="A129" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130">
+    <row r="130">
+      <c r="A130" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131">
+    <row r="131">
+      <c r="A131" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132">
+    <row r="132">
+      <c r="A132" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133">
+    <row r="133">
+      <c r="A133" t="n">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134">
+    <row r="134">
+      <c r="A134" t="n">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135">
+    <row r="135">
+      <c r="A135" t="n">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136">
+    <row r="136">
+      <c r="A136" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137">
+    <row r="137">
+      <c r="A137" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138">
+    <row r="138">
+      <c r="A138" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139">
+    <row r="139">
+      <c r="A139" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140">
+    <row r="140">
+      <c r="A140" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141">
+    <row r="141">
+      <c r="A141" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142">
+    <row r="142">
+      <c r="A142" t="n">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143">
+    <row r="143">
+      <c r="A143" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144">
+    <row r="144">
+      <c r="A144" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145">
+    <row r="145">
+      <c r="A145" t="n">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146">
+    <row r="146">
+      <c r="A146" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147">
+    <row r="147">
+      <c r="A147" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148">
+    <row r="148">
+      <c r="A148" t="n">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149">
+    <row r="149">
+      <c r="A149" t="n">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150">
+    <row r="150">
+      <c r="A150" t="n">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151">
+    <row r="151">
+      <c r="A151" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152">
+    <row r="152">
+      <c r="A152" t="n">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153">
+    <row r="153">
+      <c r="A153" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154">
+    <row r="154">
+      <c r="A154" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155">
+    <row r="155">
+      <c r="A155" t="n">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156">
+    <row r="156">
+      <c r="A156" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157">
+    <row r="157">
+      <c r="A157" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158">
+    <row r="158">
+      <c r="A158" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159">
+    <row r="159">
+      <c r="A159" t="n">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160">
+    <row r="160">
+      <c r="A160" t="n">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161">
+    <row r="161">
+      <c r="A161" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162">
+    <row r="162">
+      <c r="A162" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163">
+    <row r="163">
+      <c r="A163" t="n">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164">
+    <row r="164">
+      <c r="A164" t="n">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165">
+    <row r="165">
+      <c r="A165" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166">
+    <row r="166">
+      <c r="A166" t="n">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167">
+    <row r="167">
+      <c r="A167" t="n">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168">
+    <row r="168">
+      <c r="A168" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169">
+    <row r="169">
+      <c r="A169" t="n">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170">
+    <row r="170">
+      <c r="A170" t="n">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171">
+    <row r="171">
+      <c r="A171" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172">
+    <row r="172">
+      <c r="A172" t="n">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173">
+    <row r="173">
+      <c r="A173" t="n">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174">
+    <row r="174">
+      <c r="A174" t="n">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175">
+    <row r="175">
+      <c r="A175" t="n">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176">
+    <row r="176">
+      <c r="A176" t="n">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177">
+    <row r="177">
+      <c r="A177" t="n">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178">
+    <row r="178">
+      <c r="A178" t="n">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179">
+    <row r="179">
+      <c r="A179" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180">
+    <row r="180">
+      <c r="A180" t="n">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181">
+    <row r="181">
+      <c r="A181" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182">
+    <row r="182">
+      <c r="A182" t="n">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183">
+    <row r="183">
+      <c r="A183" t="n">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184">
+    <row r="184">
+      <c r="A184" t="n">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185">
+    <row r="185">
+      <c r="A185" t="n">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186">
+    <row r="186">
+      <c r="A186" t="n">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187">
+    <row r="187">
+      <c r="A187" t="n">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188">
+    <row r="188">
+      <c r="A188" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189">
+    <row r="189">
+      <c r="A189" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190">
+    <row r="190">
+      <c r="A190" t="n">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191">
+    <row r="191">
+      <c r="A191" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192">
+    <row r="192">
+      <c r="A192" t="n">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193">
+    <row r="193">
+      <c r="A193" t="n">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194">
+    <row r="194">
+      <c r="A194" t="n">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195">
+    <row r="195">
+      <c r="A195" t="n">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196">
+    <row r="196">
+      <c r="A196" t="n">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197">
+    <row r="197">
+      <c r="A197" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198">
+    <row r="198">
+      <c r="A198" t="n">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199">
+    <row r="199">
+      <c r="A199" t="n">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200">
+    <row r="200">
+      <c r="A200" t="n">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201">
+    <row r="201">
+      <c r="A201" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202">
+    <row r="202">
+      <c r="A202" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203">
+    <row r="203">
+      <c r="A203" t="n">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204">
+    <row r="204">
+      <c r="A204" t="n">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205">
+    <row r="205">
+      <c r="A205" t="n">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206">
+    <row r="206">
+      <c r="A206" t="n">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207">
+    <row r="207">
+      <c r="A207" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208">
+    <row r="208">
+      <c r="A208" t="n">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209">
+    <row r="209">
+      <c r="A209" t="n">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210">
+    <row r="210">
+      <c r="A210" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211">
+    <row r="211">
+      <c r="A211" t="n">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212">
+    <row r="212">
+      <c r="A212" t="n">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213">
+    <row r="213">
+      <c r="A213" t="n">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214">
+    <row r="214">
+      <c r="A214" t="n">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215">
+    <row r="215">
+      <c r="A215" t="n">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216">
+    <row r="216">
+      <c r="A216" t="n">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217">
+    <row r="217">
+      <c r="A217" t="n">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218">
+    <row r="218">
+      <c r="A218" t="n">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219">
+    <row r="219">
+      <c r="A219" t="n">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220">
+    <row r="220">
+      <c r="A220" t="n">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221">
+    <row r="221">
+      <c r="A221" t="n">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222">
+    <row r="222">
+      <c r="A222" t="n">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223">
+    <row r="223">
+      <c r="A223" t="n">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224">
+    <row r="224">
+      <c r="A224" t="n">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225">
+    <row r="225">
+      <c r="A225" t="n">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226">
+    <row r="226">
+      <c r="A226" t="n">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227">
+    <row r="227">
+      <c r="A227" t="n">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228">
+    <row r="228">
+      <c r="A228" t="n">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229">
+    <row r="229">
+      <c r="A229" t="n">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230">
+    <row r="230">
+      <c r="A230" t="n">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231">
+    <row r="231">
+      <c r="A231" t="n">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232">
+    <row r="232">
+      <c r="A232" t="n">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233">
+    <row r="233">
+      <c r="A233" t="n">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234">
+    <row r="234">
+      <c r="A234" t="n">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235">
+    <row r="235">
+      <c r="A235" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236">
+    <row r="236">
+      <c r="A236" t="n">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237">
+    <row r="237">
+      <c r="A237" t="n">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238">
+    <row r="238">
+      <c r="A238" t="n">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239">
+    <row r="239">
+      <c r="A239" t="n">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240">
+    <row r="240">
+      <c r="A240" t="n">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241">
+    <row r="241">
+      <c r="A241" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242">
+    <row r="242">
+      <c r="A242" t="n">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243">
+    <row r="243">
+      <c r="A243" t="n">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244">
+    <row r="244">
+      <c r="A244" t="n">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245">
+    <row r="245">
+      <c r="A245" t="n">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246">
+    <row r="246">
+      <c r="A246" t="n">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247">
+    <row r="247">
+      <c r="A247" t="n">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248">
+    <row r="248">
+      <c r="A248" t="n">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249">
+    <row r="249">
+      <c r="A249" t="n">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250">
+    <row r="250">
+      <c r="A250" t="n">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251">
+    <row r="251">
+      <c r="A251" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252">
+    <row r="252">
+      <c r="A252" t="n">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253">
+    <row r="253">
+      <c r="A253" t="n">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254">
+    <row r="254">
+      <c r="A254" t="n">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255">
+    <row r="255">
+      <c r="A255" t="n">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256">
+    <row r="256">
+      <c r="A256" t="n">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257">
+    <row r="257">
+      <c r="A257" t="n">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
-      <c r="A258">
+    <row r="258">
+      <c r="A258" t="n">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259">
+    <row r="259">
+      <c r="A259" t="n">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260">
+    <row r="260">
+      <c r="A260" t="n">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261">
+    <row r="261">
+      <c r="A261" t="n">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262">
+    <row r="262">
+      <c r="A262" t="n">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
-      <c r="A263">
+    <row r="263">
+      <c r="A263" t="n">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264">
+    <row r="264">
+      <c r="A264" t="n">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265">
+    <row r="265">
+      <c r="A265" t="n">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266">
+    <row r="266">
+      <c r="A266" t="n">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267">
+    <row r="267">
+      <c r="A267" t="n">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
-      <c r="A268">
+    <row r="268">
+      <c r="A268" t="n">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
-      <c r="A269">
+    <row r="269">
+      <c r="A269" t="n">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270">
+    <row r="270">
+      <c r="A270" t="n">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271">
+    <row r="271">
+      <c r="A271" t="n">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
-      <c r="A272">
+    <row r="272">
+      <c r="A272" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273">
+    <row r="273">
+      <c r="A273" t="n">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274">
+    <row r="274">
+      <c r="A274" t="n">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275">
+    <row r="275">
+      <c r="A275" t="n">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276">
+    <row r="276">
+      <c r="A276" t="n">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277">
+    <row r="277">
+      <c r="A277" t="n">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278">
+    <row r="278">
+      <c r="A278" t="n">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279">
+    <row r="279">
+      <c r="A279" t="n">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280">
+    <row r="280">
+      <c r="A280" t="n">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281">
+    <row r="281">
+      <c r="A281" t="n">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282">
+    <row r="282">
+      <c r="A282" t="n">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
-      <c r="A283">
+    <row r="283">
+      <c r="A283" t="n">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284">
+    <row r="284">
+      <c r="A284" t="n">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285">
+    <row r="285">
+      <c r="A285" t="n">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
-      <c r="A286">
+    <row r="286">
+      <c r="A286" t="n">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
-      <c r="A287">
+    <row r="287">
+      <c r="A287" t="n">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288">
+    <row r="288">
+      <c r="A288" t="n">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289">
+    <row r="289">
+      <c r="A289" t="n">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
-      <c r="A290">
+    <row r="290">
+      <c r="A290" t="n">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291">
+    <row r="291">
+      <c r="A291" t="n">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292">
+    <row r="292">
+      <c r="A292" t="n">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
-      <c r="A293">
+    <row r="293">
+      <c r="A293" t="n">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294">
+    <row r="294">
+      <c r="A294" t="n">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
-      <c r="A295">
+    <row r="295">
+      <c r="A295" t="n">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
-      <c r="A296">
+    <row r="296">
+      <c r="A296" t="n">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
-      <c r="A297">
+    <row r="297">
+      <c r="A297" t="n">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
-      <c r="A298">
+    <row r="298">
+      <c r="A298" t="n">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
-      <c r="A299">
+    <row r="299">
+      <c r="A299" t="n">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
-      <c r="A300">
+    <row r="300">
+      <c r="A300" t="n">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301">
+    <row r="301">
+      <c r="A301" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
-      <c r="A302">
+    <row r="302">
+      <c r="A302" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
-      <c r="A303">
+    <row r="303">
+      <c r="A303" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
-      <c r="A304">
+    <row r="304">
+      <c r="A304" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
-      <c r="A305">
+    <row r="305">
+      <c r="A305" t="n">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
-      <c r="A306">
+    <row r="306">
+      <c r="A306" t="n">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
-      <c r="A307">
+    <row r="307">
+      <c r="A307" t="n">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
-      <c r="A308">
+    <row r="308">
+      <c r="A308" t="n">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
-      <c r="A309">
+    <row r="309">
+      <c r="A309" t="n">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
-      <c r="A310">
+    <row r="310">
+      <c r="A310" t="n">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
-      <c r="A311">
+    <row r="311">
+      <c r="A311" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
-      <c r="A312">
+    <row r="312">
+      <c r="A312" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
-      <c r="A313">
+    <row r="313">
+      <c r="A313" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
-      <c r="A314">
+    <row r="314">
+      <c r="A314" t="n">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
-      <c r="A315">
+    <row r="315">
+      <c r="A315" t="n">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
-      <c r="A316">
+    <row r="316">
+      <c r="A316" t="n">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
-      <c r="A317">
+    <row r="317">
+      <c r="A317" t="n">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
-      <c r="A318">
+    <row r="318">
+      <c r="A318" t="n">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
-      <c r="A319">
+    <row r="319">
+      <c r="A319" t="n">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
-      <c r="A320">
+    <row r="320">
+      <c r="A320" t="n">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
-      <c r="A321">
+    <row r="321">
+      <c r="A321" t="n">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
-      <c r="A322">
+    <row r="322">
+      <c r="A322" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
-      <c r="A323">
+    <row r="323">
+      <c r="A323" t="n">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
-      <c r="A324">
+    <row r="324">
+      <c r="A324" t="n">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
-      <c r="A325">
+    <row r="325">
+      <c r="A325" t="n">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
-      <c r="A326">
+    <row r="326">
+      <c r="A326" t="n">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
-      <c r="A327">
+    <row r="327">
+      <c r="A327" t="n">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
-      <c r="A328">
+    <row r="328">
+      <c r="A328" t="n">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
-      <c r="A329">
+    <row r="329">
+      <c r="A329" t="n">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
-      <c r="A330">
+    <row r="330">
+      <c r="A330" t="n">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
-      <c r="A331">
+    <row r="331">
+      <c r="A331" t="n">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
-      <c r="A332">
+    <row r="332">
+      <c r="A332" t="n">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
-      <c r="A333">
+    <row r="333">
+      <c r="A333" t="n">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
-      <c r="A334">
+    <row r="334">
+      <c r="A334" t="n">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
-      <c r="A335">
+    <row r="335">
+      <c r="A335" t="n">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
-      <c r="A336">
+    <row r="336">
+      <c r="A336" t="n">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
-      <c r="A337">
+    <row r="337">
+      <c r="A337" t="n">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
-      <c r="A338">
+    <row r="338">
+      <c r="A338" t="n">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
-      <c r="A339">
+    <row r="339">
+      <c r="A339" t="n">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
-      <c r="A340">
+    <row r="340">
+      <c r="A340" t="n">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
-      <c r="A341">
+    <row r="341">
+      <c r="A341" t="n">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
-      <c r="A342">
+    <row r="342">
+      <c r="A342" t="n">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
-      <c r="A343">
+    <row r="343">
+      <c r="A343" t="n">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
-      <c r="A344">
+    <row r="344">
+      <c r="A344" t="n">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
-      <c r="A345">
+    <row r="345">
+      <c r="A345" t="n">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
-      <c r="A346">
+    <row r="346">
+      <c r="A346" t="n">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
-      <c r="A347">
+    <row r="347">
+      <c r="A347" t="n">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
-      <c r="A348">
+    <row r="348">
+      <c r="A348" t="n">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
-      <c r="A349">
+    <row r="349">
+      <c r="A349" t="n">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
-      <c r="A350">
+    <row r="350">
+      <c r="A350" t="n">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
-      <c r="A351">
+    <row r="351">
+      <c r="A351" t="n">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
-      <c r="A352">
+    <row r="352">
+      <c r="A352" t="n">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
-      <c r="A353">
+    <row r="353">
+      <c r="A353" t="n">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
-      <c r="A354">
+    <row r="354">
+      <c r="A354" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
-      <c r="A355">
+    <row r="355">
+      <c r="A355" t="n">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
-      <c r="A356">
+    <row r="356">
+      <c r="A356" t="n">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
-      <c r="A357">
+    <row r="357">
+      <c r="A357" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
-      <c r="A358">
+    <row r="358">
+      <c r="A358" t="n">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
-      <c r="A359">
+    <row r="359">
+      <c r="A359" t="n">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
-      <c r="A360">
+    <row r="360">
+      <c r="A360" t="n">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
-      <c r="A361">
+    <row r="361">
+      <c r="A361" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
-      <c r="A362">
+    <row r="362">
+      <c r="A362" t="n">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
-      <c r="A363">
+    <row r="363">
+      <c r="A363" t="n">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
-      <c r="A364">
+    <row r="364">
+      <c r="A364" t="n">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
-      <c r="A365">
+    <row r="365">
+      <c r="A365" t="n">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366">
+    <row r="366">
+      <c r="A366" t="n">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
-      <c r="A367">
+    <row r="367">
+      <c r="A367" t="n">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
-      <c r="A368">
+    <row r="368">
+      <c r="A368" t="n">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
-      <c r="A369">
+    <row r="369">
+      <c r="A369" t="n">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
-      <c r="A370">
+    <row r="370">
+      <c r="A370" t="n">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
-      <c r="A371">
+    <row r="371">
+      <c r="A371" t="n">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
-      <c r="A372">
+    <row r="372">
+      <c r="A372" t="n">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
-      <c r="A373">
+    <row r="373">
+      <c r="A373" t="n">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
-      <c r="A374">
+    <row r="374">
+      <c r="A374" t="n">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
-      <c r="A375">
+    <row r="375">
+      <c r="A375" t="n">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
-      <c r="A376">
+    <row r="376">
+      <c r="A376" t="n">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
-      <c r="A377">
+    <row r="377">
+      <c r="A377" t="n">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
-      <c r="A378">
+    <row r="378">
+      <c r="A378" t="n">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
-      <c r="A379">
+    <row r="379">
+      <c r="A379" t="n">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
-      <c r="A380">
+    <row r="380">
+      <c r="A380" t="n">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
-      <c r="A381">
+    <row r="381">
+      <c r="A381" t="n">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
-      <c r="A382">
+    <row r="382">
+      <c r="A382" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
-      <c r="A383">
+    <row r="383">
+      <c r="A383" t="n">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
-      <c r="A384">
+    <row r="384">
+      <c r="A384" t="n">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
-      <c r="A385">
+    <row r="385">
+      <c r="A385" t="n">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
-      <c r="A386">
+    <row r="386">
+      <c r="A386" t="n">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
-      <c r="A387">
+    <row r="387">
+      <c r="A387" t="n">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
-      <c r="A388">
+    <row r="388">
+      <c r="A388" t="n">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
-      <c r="A389">
+    <row r="389">
+      <c r="A389" t="n">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
-      <c r="A390">
+    <row r="390">
+      <c r="A390" t="n">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
-      <c r="A391">
+    <row r="391">
+      <c r="A391" t="n">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
-      <c r="A392">
+    <row r="392">
+      <c r="A392" t="n">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
-      <c r="A393">
+    <row r="393">
+      <c r="A393" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
-      <c r="A394">
+    <row r="394">
+      <c r="A394" t="n">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
-      <c r="A395">
+    <row r="395">
+      <c r="A395" t="n">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
-      <c r="A396">
+    <row r="396">
+      <c r="A396" t="n">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
-      <c r="A397">
+    <row r="397">
+      <c r="A397" t="n">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
-      <c r="A398">
+    <row r="398">
+      <c r="A398" t="n">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
-      <c r="A399">
+    <row r="399">
+      <c r="A399" t="n">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
-      <c r="A400">
+    <row r="400">
+      <c r="A400" t="n">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
-      <c r="A401">
+    <row r="401">
+      <c r="A401" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
-      <c r="A402">
+    <row r="402">
+      <c r="A402" t="n">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
-      <c r="A403">
+    <row r="403">
+      <c r="A403" t="n">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
-      <c r="A404">
+    <row r="404">
+      <c r="A404" t="n">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
-      <c r="A405">
+    <row r="405">
+      <c r="A405" t="n">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
-      <c r="A406">
+    <row r="406">
+      <c r="A406" t="n">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
-      <c r="A407">
+    <row r="407">
+      <c r="A407" t="n">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
-      <c r="A408">
+    <row r="408">
+      <c r="A408" t="n">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
-      <c r="A409">
+    <row r="409">
+      <c r="A409" t="n">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
-      <c r="A410">
+    <row r="410">
+      <c r="A410" t="n">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
-      <c r="A411">
+    <row r="411">
+      <c r="A411" t="n">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
-      <c r="A412">
+    <row r="412">
+      <c r="A412" t="n">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
-      <c r="A413">
+    <row r="413">
+      <c r="A413" t="n">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
-      <c r="A414">
+    <row r="414">
+      <c r="A414" t="n">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
-      <c r="A415">
+    <row r="415">
+      <c r="A415" t="n">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
-      <c r="A416">
+    <row r="416">
+      <c r="A416" t="n">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
-      <c r="A417">
+    <row r="417">
+      <c r="A417" t="n">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
-      <c r="A418">
+    <row r="418">
+      <c r="A418" t="n">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
-      <c r="A419">
+    <row r="419">
+      <c r="A419" t="n">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
-      <c r="A420">
+    <row r="420">
+      <c r="A420" t="n">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
-      <c r="A421">
+    <row r="421">
+      <c r="A421" t="n">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
-      <c r="A422">
+    <row r="422">
+      <c r="A422" t="n">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
-      <c r="A423">
+    <row r="423">
+      <c r="A423" t="n">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
-      <c r="A424">
+    <row r="424">
+      <c r="A424" t="n">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
-      <c r="A425">
+    <row r="425">
+      <c r="A425" t="n">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
-      <c r="A426">
+    <row r="426">
+      <c r="A426" t="n">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
-      <c r="A427">
+    <row r="427">
+      <c r="A427" t="n">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
-      <c r="A428">
+    <row r="428">
+      <c r="A428" t="n">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
-      <c r="A429">
+    <row r="429">
+      <c r="A429" t="n">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
-      <c r="A430">
+    <row r="430">
+      <c r="A430" t="n">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
-      <c r="A431">
+    <row r="431">
+      <c r="A431" t="n">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
-      <c r="A432">
+    <row r="432">
+      <c r="A432" t="n">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
-      <c r="A433">
+    <row r="433">
+      <c r="A433" t="n">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
-      <c r="A434">
+    <row r="434">
+      <c r="A434" t="n">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
-      <c r="A435">
+    <row r="435">
+      <c r="A435" t="n">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
-      <c r="A436">
+    <row r="436">
+      <c r="A436" t="n">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
-      <c r="A437">
+    <row r="437">
+      <c r="A437" t="n">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
-      <c r="A438">
+    <row r="438">
+      <c r="A438" t="n">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
-      <c r="A439">
+    <row r="439">
+      <c r="A439" t="n">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
-      <c r="A440">
+    <row r="440">
+      <c r="A440" t="n">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
-      <c r="A441">
+    <row r="441">
+      <c r="A441" t="n">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
-      <c r="A442">
+    <row r="442">
+      <c r="A442" t="n">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
-      <c r="A443">
+    <row r="443">
+      <c r="A443" t="n">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
-      <c r="A444">
+    <row r="444">
+      <c r="A444" t="n">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
-      <c r="A445">
+    <row r="445">
+      <c r="A445" t="n">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
-      <c r="A446">
+    <row r="446">
+      <c r="A446" t="n">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
-      <c r="A447">
+    <row r="447">
+      <c r="A447" t="n">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
-      <c r="A448">
+    <row r="448">
+      <c r="A448" t="n">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
-      <c r="A449">
+    <row r="449">
+      <c r="A449" t="n">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
-      <c r="A450">
+    <row r="450">
+      <c r="A450" t="n">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
-      <c r="A451">
+    <row r="451">
+      <c r="A451" t="n">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
-      <c r="A452">
+    <row r="452">
+      <c r="A452" t="n">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
-      <c r="A453">
+    <row r="453">
+      <c r="A453" t="n">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
-      <c r="A454">
+    <row r="454">
+      <c r="A454" t="n">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
-      <c r="A455">
+    <row r="455">
+      <c r="A455" t="n">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
-      <c r="A456">
+    <row r="456">
+      <c r="A456" t="n">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
-      <c r="A457">
+    <row r="457">
+      <c r="A457" t="n">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
-      <c r="A458">
+    <row r="458">
+      <c r="A458" t="n">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
-      <c r="A459">
+    <row r="459">
+      <c r="A459" t="n">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
-      <c r="A460">
+    <row r="460">
+      <c r="A460" t="n">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
-      <c r="A461">
+    <row r="461">
+      <c r="A461" t="n">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
-      <c r="A462">
+    <row r="462">
+      <c r="A462" t="n">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
-      <c r="A463">
+    <row r="463">
+      <c r="A463" t="n">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
-      <c r="A464">
+    <row r="464">
+      <c r="A464" t="n">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
-      <c r="A465">
+    <row r="465">
+      <c r="A465" t="n">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
-      <c r="A466">
+    <row r="466">
+      <c r="A466" t="n">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
-      <c r="A467">
+    <row r="467">
+      <c r="A467" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
-      <c r="A468">
+    <row r="468">
+      <c r="A468" t="n">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
-      <c r="A469">
+    <row r="469">
+      <c r="A469" t="n">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
-      <c r="A470">
+    <row r="470">
+      <c r="A470" t="n">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
-      <c r="A471">
+    <row r="471">
+      <c r="A471" t="n">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
-      <c r="A472">
+    <row r="472">
+      <c r="A472" t="n">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
-      <c r="A473">
+    <row r="473">
+      <c r="A473" t="n">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
-      <c r="A474">
+    <row r="474">
+      <c r="A474" t="n">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
-      <c r="A475">
+    <row r="475">
+      <c r="A475" t="n">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
-      <c r="A476">
+    <row r="476">
+      <c r="A476" t="n">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
-      <c r="A477">
+    <row r="477">
+      <c r="A477" t="n">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
-      <c r="A478">
+    <row r="478">
+      <c r="A478" t="n">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
-      <c r="A479">
+    <row r="479">
+      <c r="A479" t="n">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
-      <c r="A480">
+    <row r="480">
+      <c r="A480" t="n">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
-      <c r="A481">
+    <row r="481">
+      <c r="A481" t="n">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
-      <c r="A482">
+    <row r="482">
+      <c r="A482" t="n">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
-      <c r="A483">
+    <row r="483">
+      <c r="A483" t="n">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
-      <c r="A484">
+    <row r="484">
+      <c r="A484" t="n">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
-      <c r="A485">
+    <row r="485">
+      <c r="A485" t="n">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
-      <c r="A486">
+    <row r="486">
+      <c r="A486" t="n">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
-      <c r="A487">
+    <row r="487">
+      <c r="A487" t="n">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
-      <c r="A488">
+    <row r="488">
+      <c r="A488" t="n">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
-      <c r="A489">
+    <row r="489">
+      <c r="A489" t="n">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
-      <c r="A490">
+    <row r="490">
+      <c r="A490" t="n">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
-      <c r="A491">
+    <row r="491">
+      <c r="A491" t="n">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
-      <c r="A492">
+    <row r="492">
+      <c r="A492" t="n">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
-      <c r="A493">
+    <row r="493">
+      <c r="A493" t="n">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
-      <c r="A494">
+    <row r="494">
+      <c r="A494" t="n">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
-      <c r="A495">
+    <row r="495">
+      <c r="A495" t="n">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
-      <c r="A496">
+    <row r="496">
+      <c r="A496" t="n">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
-      <c r="A497">
+    <row r="497">
+      <c r="A497" t="n">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
-      <c r="A498">
+    <row r="498">
+      <c r="A498" t="n">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
-      <c r="A499">
+    <row r="499">
+      <c r="A499" t="n">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
-      <c r="A500">
+    <row r="500">
+      <c r="A500" t="n">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
-      <c r="A501">
+    <row r="501">
+      <c r="A501" t="n">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/booklist.xlsx
+++ b/booklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1650" yWindow="4395" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,20 +397,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F501"/>
+  <dimension ref="A1:H501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="4.5" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="15" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="20.5" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="29" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="20.25" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="16.125" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="9.25" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="11.875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -444,6 +445,16 @@
           <t>language</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>publishdate</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pages</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -474,6 +485,14 @@
           <t>en</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2004-07-29</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -504,20 +523,127 @@
           <t>en</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2004-07-29</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9784254227321</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>数値計算法</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>奈良久</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9784253223195</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ダーウィンズゲーム 24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FLIPFLOPs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2021-09-08</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9781857446463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Attacking Chess - The French</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Simon Williams</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="7">

--- a/booklist.xlsx
+++ b/booklist.xlsx
@@ -538,17 +538,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9784254227321</t>
+          <t>9784839977504</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>数値計算法</t>
+          <t>競技プログラミングの鉄則</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>奈良久</t>
+          <t>米田優峻</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -563,11 +563,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -576,17 +576,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9784253223195</t>
+          <t>9784254227321</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ダーウィンズゲーム 24</t>
+          <t>数値計算法</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FLIPFLOPs</t>
+          <t>奈良久</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -601,11 +601,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2021-09-08</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>192</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -614,17 +614,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9781857446463</t>
+          <t>9784253223195</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Attacking Chess - The French</t>
+          <t>ダーウィンズゲーム 24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Simon Williams</t>
+          <t>FLIPFLOPs</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -634,26 +634,92 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2021-09-08</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>320</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9781857446463</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Attacking Chess - The French</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Simon Williams</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9784839977504</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>競技プログラミングの鉄則</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>米田優峻</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">

--- a/booklist.xlsx
+++ b/booklist.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:H10001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -726,11 +726,77 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9780713488913</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Imagination in Chess</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Paata Gaprindashvili</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B T Batsford Ltd</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2004-07-29</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9784839977504</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>競技プログラミングの鉄則</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>米田優峻</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3185,6 +3251,76 @@
     <row r="501">
       <c r="A501" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="10000">
+      <c r="B10000" t="inlineStr">
+        <is>
+          <t>9780713488913</t>
+        </is>
+      </c>
+      <c r="C10000" t="inlineStr">
+        <is>
+          <t>Imagination in Chess</t>
+        </is>
+      </c>
+      <c r="D10000" t="inlineStr">
+        <is>
+          <t>Paata Gaprindashvili</t>
+        </is>
+      </c>
+      <c r="E10000" t="inlineStr">
+        <is>
+          <t>B T Batsford Ltd</t>
+        </is>
+      </c>
+      <c r="F10000" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="G10000" t="inlineStr">
+        <is>
+          <t>2004-07-29</t>
+        </is>
+      </c>
+      <c r="H10000" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10001">
+      <c r="B10001" t="inlineStr">
+        <is>
+          <t>9784839977504</t>
+        </is>
+      </c>
+      <c r="C10001" t="inlineStr">
+        <is>
+          <t>競技プログラミングの鉄則</t>
+        </is>
+      </c>
+      <c r="D10001" t="inlineStr">
+        <is>
+          <t>米田優峻</t>
+        </is>
+      </c>
+      <c r="E10001" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10001" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="G10001" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="H10001" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
